--- a/dev/Input data_tw.xlsx
+++ b/dev/Input data_tw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\carculator_two_wheeler\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_two_wheeler/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F969BC2-1F6E-794F-AC37-64BD1B3A85A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="25824" windowHeight="14016" tabRatio="518"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$172</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -614,7 +617,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -779,14 +782,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 2 2" xfId="8"/>
-    <cellStyle name="Normal 2 3" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="5"/>
-    <cellStyle name="Standard 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,6 +880,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -912,6 +932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,42 +1124,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="S137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:AB172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="8" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="20" customWidth="1"/>
     <col min="8" max="8" width="19" style="20" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5" style="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="9.5" style="13" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1208,7 +1244,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1274,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1396,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1482,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1654,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +1824,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1910,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1960,7 +1996,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2082,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2132,7 +2168,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2254,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2304,7 +2340,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2426,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2510,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2560,7 +2596,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2646,7 +2682,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +2768,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2854,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
@@ -2878,7 +2914,7 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
     </row>
-    <row r="22" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>16</v>
       </c>
@@ -2938,7 +2974,7 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
     </row>
-    <row r="23" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>16</v>
       </c>
@@ -2998,7 +3034,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>16</v>
       </c>
@@ -3058,7 +3094,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
@@ -3142,7 +3178,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>16</v>
       </c>
@@ -3224,7 +3260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>16</v>
       </c>
@@ -3306,7 +3342,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>16</v>
       </c>
@@ -3470,7 +3506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>16</v>
       </c>
@@ -3634,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>16</v>
       </c>
@@ -3716,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>16</v>
       </c>
@@ -3798,7 +3834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>16</v>
       </c>
@@ -3880,7 +3916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>16</v>
       </c>
@@ -3962,7 +3998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>16</v>
       </c>
@@ -4044,7 +4080,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>16</v>
       </c>
@@ -4126,7 +4162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +4244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
         <v>16</v>
       </c>
@@ -4290,7 +4326,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
         <v>16</v>
       </c>
@@ -4372,7 +4408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
         <v>16</v>
       </c>
@@ -4454,7 +4490,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
         <v>16</v>
       </c>
@@ -4536,7 +4572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>16</v>
       </c>
@@ -4618,7 +4654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>16</v>
       </c>
@@ -4718,7 +4754,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>16</v>
       </c>
@@ -4820,7 +4856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>16</v>
       </c>
@@ -4920,7 +4956,7 @@
         <v>13.043478260869565</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>16</v>
       </c>
@@ -5020,7 +5056,7 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>16</v>
       </c>
@@ -5120,7 +5156,7 @@
         <v>6.6666666666666661</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>16</v>
       </c>
@@ -5220,7 +5256,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>16</v>
       </c>
@@ -5320,7 +5356,7 @@
         <v>35.744680851063826</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>16</v>
       </c>
@@ -5420,7 +5456,7 @@
         <v>30.89108910891089</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>16</v>
       </c>
@@ -5520,7 +5556,7 @@
         <v>81.230769230769226</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>16</v>
       </c>
@@ -5620,7 +5656,7 @@
         <v>55.877862595419849</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>16</v>
       </c>
@@ -5720,7 +5756,7 @@
         <v>88.52459016393442</v>
       </c>
     </row>
-    <row r="55" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>16</v>
       </c>
@@ -5820,7 +5856,7 @@
         <v>53.714285714285708</v>
       </c>
     </row>
-    <row r="56" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>16</v>
       </c>
@@ -5920,7 +5956,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>16</v>
       </c>
@@ -6020,7 +6056,7 @@
         <v>101.20481927710843</v>
       </c>
     </row>
-    <row r="58" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>16</v>
       </c>
@@ -6120,7 +6156,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>16</v>
       </c>
@@ -6220,7 +6256,7 @@
         <v>230.58823529411762</v>
       </c>
     </row>
-    <row r="60" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>16</v>
       </c>
@@ -6282,7 +6318,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>17</v>
       </c>
@@ -6380,7 +6416,7 @@
         <v>0.35200000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>17</v>
       </c>
@@ -6478,7 +6514,7 @@
         <v>0.6160000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>17</v>
       </c>
@@ -6576,7 +6612,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>17</v>
       </c>
@@ -6674,7 +6710,7 @@
         <v>7.7000000000000013E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>17</v>
       </c>
@@ -6772,7 +6808,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>17</v>
       </c>
@@ -6870,7 +6906,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
         <v>17</v>
       </c>
@@ -6968,7 +7004,7 @@
         <v>0.84700000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>17</v>
       </c>
@@ -7066,7 +7102,7 @@
         <v>1.2869999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>17</v>
       </c>
@@ -7164,7 +7200,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>17</v>
       </c>
@@ -7262,7 +7298,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
         <v>17</v>
       </c>
@@ -7360,7 +7396,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
         <v>17</v>
       </c>
@@ -7458,7 +7494,7 @@
         <v>0.42900000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
         <v>17</v>
       </c>
@@ -7556,7 +7592,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>17</v>
       </c>
@@ -7654,7 +7690,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>17</v>
       </c>
@@ -7752,7 +7788,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
         <v>17</v>
       </c>
@@ -7850,7 +7886,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
         <v>17</v>
       </c>
@@ -7948,7 +7984,7 @@
         <v>0.20900000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>17</v>
       </c>
@@ -8046,7 +8082,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
         <v>17</v>
       </c>
@@ -8144,7 +8180,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
         <v>17</v>
       </c>
@@ -8242,7 +8278,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>89</v>
       </c>
@@ -8340,7 +8376,7 @@
         <v>1.7600000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>89</v>
       </c>
@@ -8438,7 +8474,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="83" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
         <v>89</v>
       </c>
@@ -8536,7 +8572,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="84" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
         <v>89</v>
       </c>
@@ -8634,7 +8670,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="85" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
         <v>89</v>
       </c>
@@ -8732,7 +8768,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
         <v>89</v>
       </c>
@@ -8830,7 +8866,7 @@
         <v>30.910000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>89</v>
       </c>
@@ -8928,7 +8964,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="88" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
         <v>89</v>
       </c>
@@ -9026,7 +9062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
         <v>89</v>
       </c>
@@ -9124,7 +9160,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="90" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
         <v>89</v>
       </c>
@@ -9210,7 +9246,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
         <v>89</v>
       </c>
@@ -9296,7 +9332,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>89</v>
       </c>
@@ -9394,7 +9430,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="93" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>18</v>
       </c>
@@ -9480,7 +9516,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="94" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
@@ -9572,7 +9608,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="95" spans="1:28" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>18</v>
       </c>
@@ -9628,7 +9664,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
     </row>
-    <row r="96" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>18</v>
       </c>
@@ -9724,7 +9760,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -9820,7 +9856,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="98" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
@@ -9916,7 +9952,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="99" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>18</v>
       </c>
@@ -10012,7 +10048,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="100" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -10121,7 +10157,7 @@
       <c r="AS100" s="1"/>
       <c r="AT100" s="1"/>
     </row>
-    <row r="101" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>18</v>
       </c>
@@ -10224,7 +10260,7 @@
       <c r="AS101" s="1"/>
       <c r="AT101" s="1"/>
     </row>
-    <row r="102" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -10327,7 +10363,7 @@
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
     </row>
-    <row r="103" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10466,7 @@
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
     </row>
-    <row r="104" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -10533,7 +10569,7 @@
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
     </row>
-    <row r="105" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>18</v>
       </c>
@@ -10642,7 +10678,7 @@
       <c r="AS105" s="1"/>
       <c r="AT105" s="1"/>
     </row>
-    <row r="106" spans="1:46" s="17" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -10745,7 +10781,7 @@
       <c r="AS106" s="1"/>
       <c r="AT106" s="1"/>
     </row>
-    <row r="107" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
         <v>16</v>
       </c>
@@ -10843,7 +10879,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
         <v>16</v>
       </c>
@@ -10941,7 +10977,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
         <v>16</v>
       </c>
@@ -11039,7 +11075,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
         <v>16</v>
       </c>
@@ -11137,7 +11173,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
         <v>16</v>
       </c>
@@ -11235,7 +11271,7 @@
         <v>1.2100000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:46" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:46" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
         <v>16</v>
       </c>
@@ -11333,7 +11369,7 @@
         <v>0.82500000000000007</v>
       </c>
     </row>
-    <row r="113" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16" t="s">
         <v>16</v>
       </c>
@@ -11431,7 +11467,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
         <v>16</v>
       </c>
@@ -11529,7 +11565,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="115" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
         <v>16</v>
       </c>
@@ -11627,7 +11663,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:28" s="1" customFormat="1" ht="14.55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
         <v>16</v>
       </c>
@@ -11725,7 +11761,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="117" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
         <v>16</v>
       </c>
@@ -11823,7 +11859,7 @@
         <v>1.1770000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
         <v>16</v>
       </c>
@@ -11921,7 +11957,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="119" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12053,7 @@
         <v>5.7750000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>89</v>
       </c>
@@ -12113,7 +12149,7 @@
         <v>7.4250000000000007</v>
       </c>
     </row>
-    <row r="121" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>89</v>
       </c>
@@ -12209,7 +12245,7 @@
         <v>12.375000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>89</v>
       </c>
@@ -12305,7 +12341,7 @@
         <v>14.850000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>89</v>
       </c>
@@ -12403,7 +12439,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -12495,7 +12531,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="125" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>17</v>
       </c>
@@ -12594,7 +12630,7 @@
         <v>1.0033754123091398</v>
       </c>
     </row>
-    <row r="126" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>17</v>
       </c>
@@ -12693,7 +12729,7 @@
         <v>0.21304590376960589</v>
       </c>
     </row>
-    <row r="127" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>17</v>
       </c>
@@ -12789,7 +12825,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="128" spans="1:28" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -12885,7 +12921,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="129" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -12981,7 +13017,7 @@
         <v>1.0395000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -13041,7 +13077,7 @@
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
     </row>
-    <row r="131" spans="1:46" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -13101,7 +13137,7 @@
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
     </row>
-    <row r="132" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>89</v>
       </c>
@@ -13197,7 +13233,7 @@
         <v>1.4300000000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>89</v>
       </c>
@@ -13299,7 +13335,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="134" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>89</v>
       </c>
@@ -13401,7 +13437,7 @@
         <v>0.35750000000000004</v>
       </c>
     </row>
-    <row r="135" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>89</v>
       </c>
@@ -13503,7 +13539,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="136" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>89</v>
       </c>
@@ -13605,7 +13641,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>89</v>
       </c>
@@ -13707,7 +13743,7 @@
         <v>0.30937500000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>89</v>
       </c>
@@ -13811,7 +13847,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>89</v>
       </c>
@@ -13913,7 +13949,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="140" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>89</v>
       </c>
@@ -14015,7 +14051,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>89</v>
       </c>
@@ -14117,7 +14153,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>89</v>
       </c>
@@ -14219,7 +14255,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:46" s="1" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>89</v>
       </c>
@@ -14321,7 +14357,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:46" s="16" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16" t="s">
         <v>17</v>
       </c>
@@ -14394,7 +14430,7 @@
       <c r="AS144" s="1"/>
       <c r="AT144" s="1"/>
     </row>
-    <row r="145" spans="1:46" s="16" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16" t="s">
         <v>17</v>
       </c>
@@ -14505,7 +14541,7 @@
       <c r="AS145" s="1"/>
       <c r="AT145" s="1"/>
     </row>
-    <row r="146" spans="1:46" s="16" customFormat="1" ht="13.05" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16" t="s">
         <v>17</v>
       </c>
@@ -14616,7 +14652,7 @@
       <c r="AS146" s="1"/>
       <c r="AT146" s="1"/>
     </row>
-    <row r="147" spans="1:46" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" s="16" t="s">
         <v>17</v>
       </c>
@@ -14691,7 +14727,7 @@
       <c r="AS147" s="1"/>
       <c r="AT147" s="1"/>
     </row>
-    <row r="148" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16" t="s">
         <v>17</v>
       </c>
@@ -14810,7 +14846,7 @@
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
     </row>
-    <row r="149" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16" t="s">
         <v>17</v>
       </c>
@@ -14929,7 +14965,7 @@
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
     </row>
-    <row r="150" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16" t="s">
         <v>17</v>
       </c>
@@ -15042,7 +15078,7 @@
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
     </row>
-    <row r="151" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16" t="s">
         <v>142</v>
       </c>
@@ -15144,7 +15180,7 @@
       <c r="AS151" s="1"/>
       <c r="AT151" s="1"/>
     </row>
-    <row r="152" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
         <v>142</v>
       </c>
@@ -15246,7 +15282,7 @@
       <c r="AS152" s="1"/>
       <c r="AT152" s="1"/>
     </row>
-    <row r="153" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16" t="s">
         <v>142</v>
       </c>
@@ -15346,7 +15382,7 @@
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
     </row>
-    <row r="154" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16" t="s">
         <v>142</v>
       </c>
@@ -15446,7 +15482,7 @@
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
     </row>
-    <row r="155" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16" t="s">
         <v>142</v>
       </c>
@@ -15546,7 +15582,7 @@
       <c r="AS155" s="1"/>
       <c r="AT155" s="1"/>
     </row>
-    <row r="156" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16" t="s">
         <v>142</v>
       </c>
@@ -15648,7 +15684,7 @@
       <c r="AS156" s="1"/>
       <c r="AT156" s="1"/>
     </row>
-    <row r="157" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16" t="s">
         <v>142</v>
       </c>
@@ -15750,7 +15786,7 @@
       <c r="AS157" s="1"/>
       <c r="AT157" s="1"/>
     </row>
-    <row r="158" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16" t="s">
         <v>142</v>
       </c>
@@ -15852,7 +15888,7 @@
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
     </row>
-    <row r="159" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16" t="s">
         <v>142</v>
       </c>
@@ -15954,7 +15990,7 @@
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
     </row>
-    <row r="160" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16" t="s">
         <v>142</v>
       </c>
@@ -16018,7 +16054,7 @@
       <c r="AS160" s="1"/>
       <c r="AT160" s="1"/>
     </row>
-    <row r="161" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16" t="s">
         <v>142</v>
       </c>
@@ -16082,7 +16118,7 @@
       <c r="AS161" s="1"/>
       <c r="AT161" s="1"/>
     </row>
-    <row r="162" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16" t="s">
         <v>142</v>
       </c>
@@ -16184,7 +16220,7 @@
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
     </row>
-    <row r="163" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16" t="s">
         <v>142</v>
       </c>
@@ -16286,7 +16322,7 @@
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
     </row>
-    <row r="164" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
         <v>142</v>
       </c>
@@ -16388,7 +16424,7 @@
       <c r="AS164" s="1"/>
       <c r="AT164" s="1"/>
     </row>
-    <row r="165" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16" t="s">
         <v>142</v>
       </c>
@@ -16490,7 +16526,7 @@
       <c r="AS165" s="1"/>
       <c r="AT165" s="1"/>
     </row>
-    <row r="166" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16" t="s">
         <v>142</v>
       </c>
@@ -16592,7 +16628,7 @@
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
     </row>
-    <row r="167" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="16" t="s">
         <v>142</v>
       </c>
@@ -16692,7 +16728,7 @@
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
     </row>
-    <row r="168" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="16" t="s">
         <v>142</v>
       </c>
@@ -16792,7 +16828,7 @@
       <c r="AS168" s="1"/>
       <c r="AT168" s="1"/>
     </row>
-    <row r="169" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="16" t="s">
         <v>142</v>
       </c>
@@ -16894,7 +16930,7 @@
       <c r="AS169" s="1"/>
       <c r="AT169" s="1"/>
     </row>
-    <row r="170" spans="1:46" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16" t="s">
         <v>142</v>
       </c>
@@ -16996,7 +17032,7 @@
       <c r="AS170" s="1"/>
       <c r="AT170" s="1"/>
     </row>
-    <row r="171" spans="1:46" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A171" s="16" t="s">
         <v>142</v>
       </c>
@@ -17098,7 +17134,7 @@
       <c r="AS171" s="1"/>
       <c r="AT171" s="1"/>
     </row>
-    <row r="172" spans="1:46" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A172" s="16" t="s">
         <v>142</v>
       </c>
@@ -17199,17 +17235,11 @@
       <c r="AT172" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB172">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="mechanical powertrain mass share"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AB172" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H112" r:id="rId1"/>
-    <hyperlink ref="H116" r:id="rId2"/>
+    <hyperlink ref="H112" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H116" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/dev/Input data_tw.xlsx
+++ b/dev/Input data_tw.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_two_wheeler/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAFBF57-69F4-CB48-87BD-3CEFAA7853C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A51B97-B31D-9E4B-81AB-EB546B438E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10660" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$216</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="228">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -645,6 +645,82 @@
   </si>
   <si>
     <t>battery cell mass share, LFP</t>
+  </si>
+  <si>
+    <t>battery cell energy density, NMC-111</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/pdf/10.1021/acsenergylett.7b00432</t>
+  </si>
+  <si>
+    <t>battery cell energy density, NMC-523</t>
+  </si>
+  <si>
+    <t>battery cell energy density, NMC-622</t>
+  </si>
+  <si>
+    <t>battery cell energy density, NMC-811</t>
+  </si>
+  <si>
+    <t>battery cell energy density, NMC-955</t>
+  </si>
+  <si>
+    <t>battery cell energy density, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cell energy density, Li-S</t>
+  </si>
+  <si>
+    <t>battery cell energy density, SiB</t>
+  </si>
+  <si>
+    <t>Yang, X.-G., Liu, T., &amp; Wang, C.-Y. (2021). Thermally modulated lithium iron phosphate batteries for mass-market electric vehicles. Nature Energy 2021 6:2, 6(2), 176–185. https://doi.org/10.1038/s41560-020-00757-7</t>
+  </si>
+  <si>
+    <t>For LFP :Yang, X.-G., Liu, T., &amp; Wang, C.-Y. (2021). Thermally modulated lithium iron phosphate batteries for mass-market electric vehicles. Nature Energy 2021 6:2, 6(2), 176–185. https://doi.org/10.1038/s41560-020-00757-7
+For NMC/NCA: Towards more flexibility and transparency in life cycle inventories for Lithium-ion batteries. EleonorCrenna, Marcel Gauch, Rolf Widmer, Patrick Wäger, Roland Hischier</t>
+  </si>
+  <si>
+    <t>battery cell mass share, NMC-111</t>
+  </si>
+  <si>
+    <t>battery cell mass share, NMC-523</t>
+  </si>
+  <si>
+    <t>battery cell mass share, NMC-622</t>
+  </si>
+  <si>
+    <t>battery cell mass share, NMC-811</t>
+  </si>
+  <si>
+    <t>battery cell mass share, NMC-955</t>
+  </si>
+  <si>
+    <t>battery cell mass share, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cell mass share, Li-S</t>
+  </si>
+  <si>
+    <t>battery cell mass share, SiB</t>
+  </si>
+  <si>
+    <t>battery cycle life, NMC-111</t>
+  </si>
+  <si>
+    <t>battery cycle life, NMC-523</t>
+  </si>
+  <si>
+    <t>battery cycle life, NMC-622</t>
+  </si>
+  <si>
+    <t>battery cycle life, NMC-811</t>
+  </si>
+  <si>
+    <t>battery cycle life, NMC-955</t>
+  </si>
+  <si>
+    <t>Moped &lt;4kW, Motorcycle 11-35kW, Motorcycle 4-11kW, Motorcycle &gt;35kW, Scooter 4-11kW, Scooter &lt;4kW</t>
   </si>
 </sst>
 </file>
@@ -755,7 +831,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -806,6 +882,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
@@ -833,9 +912,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -873,9 +952,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,26 +987,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,26 +1022,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,13 +1199,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AT183"/>
+  <dimension ref="A1:AT220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B184" sqref="B184"/>
+      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2877,7 +2922,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2937,7 +2982,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -2997,7 +3042,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -3057,7 +3102,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -3117,7 +3162,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
@@ -12729,7 +12774,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -12821,7 +12866,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -12829,7 +12874,7 @@
         <v>59</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>46</v>
@@ -12920,7 +12965,7 @@
         <v>1.0033754123091398</v>
       </c>
     </row>
-    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -12928,7 +12973,7 @@
         <v>79</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>46</v>
@@ -12950,73 +12995,70 @@
         <v>25</v>
       </c>
       <c r="K130" s="8">
-        <v>0.18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L130" s="8">
-        <f t="shared" ref="L130:L133" si="219">K130-0.01</f>
-        <v>0.16999999999999998</v>
+        <f>K130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="M130" s="8">
-        <f t="shared" ref="M130:M133" si="220">K130+0.01</f>
-        <v>0.19</v>
+        <f>K130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="N130" s="8">
-        <v>0.18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O130" s="8">
-        <f t="shared" ref="O130:O133" si="221">N130-0.01</f>
-        <v>0.16999999999999998</v>
+        <f>N130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="P130" s="8">
-        <f t="shared" ref="P130:P133" si="222">N130+0.01</f>
-        <v>0.19</v>
+        <f>N130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="Q130" s="8">
-        <v>0.18</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R130" s="8">
-        <f t="shared" ref="R130:R133" si="223">Q130-0.01</f>
-        <v>0.16999999999999998</v>
+        <f>Q130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="S130" s="8">
-        <f t="shared" ref="S130:S133" si="224">Q130+0.01</f>
-        <v>0.19</v>
+        <f>Q130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="T130" s="8">
-        <f>Q130*POWER(1+0.004,10)</f>
-        <v>0.18733099212340384</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U130" s="8">
-        <f t="shared" si="213"/>
-        <v>0.17796444251723365</v>
+        <f>T130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="V130" s="8">
-        <f t="shared" si="216"/>
-        <v>0.19669754172957404</v>
+        <f>T130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="W130" s="8">
-        <f>T130*POWER(1+0.004,10)</f>
-        <v>0.19496055894410441</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X130" s="8">
-        <f t="shared" si="214"/>
-        <v>0.18521253099689919</v>
+        <f>W130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="Y130" s="8">
-        <f t="shared" si="217"/>
-        <v>0.20470858689130964</v>
+        <f>W130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="Z130" s="8">
-        <f>W130*POWER(1+0.004,10)</f>
-        <v>0.20290086073295799</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA130" s="8">
-        <f t="shared" si="215"/>
-        <v>0.19275581769631009</v>
+        <f>Z130*0.75</f>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="AB130" s="8">
-        <f t="shared" si="218"/>
-        <v>0.21304590376960589</v>
+        <f>Z130*1.25</f>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
@@ -13052,33 +13094,33 @@
         <v>0.8</v>
       </c>
       <c r="L131" s="8">
-        <f t="shared" si="219"/>
+        <f t="shared" ref="L131:L133" si="219">K131-0.01</f>
         <v>0.79</v>
       </c>
       <c r="M131" s="8">
-        <f t="shared" si="220"/>
+        <f t="shared" ref="M131:M133" si="220">K131+0.01</f>
         <v>0.81</v>
       </c>
       <c r="N131" s="8">
         <v>0.8</v>
       </c>
       <c r="O131" s="8">
-        <f t="shared" si="221"/>
+        <f t="shared" ref="O131:O133" si="221">N131-0.01</f>
         <v>0.79</v>
       </c>
       <c r="P131" s="8">
-        <f t="shared" si="222"/>
+        <f t="shared" ref="P131:P133" si="222">N131+0.01</f>
         <v>0.81</v>
       </c>
       <c r="Q131" s="8">
         <v>0.8</v>
       </c>
       <c r="R131" s="8">
-        <f t="shared" si="223"/>
+        <f t="shared" ref="R131:R133" si="223">Q131-0.01</f>
         <v>0.79</v>
       </c>
       <c r="S131" s="8">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="S131:S133" si="224">Q131+0.01</f>
         <v>0.81</v>
       </c>
       <c r="T131" s="8">
@@ -18089,11 +18131,3215 @@
         <v>0.9900000000000001</v>
       </c>
     </row>
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="L184" s="8">
+        <f>K184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M184" s="8">
+        <f>K184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="O184" s="8">
+        <f>N184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P184" s="8">
+        <f>N184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="R184" s="8">
+        <f>Q184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="S184" s="8">
+        <f>Q184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="U184" s="8">
+        <f>T184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V184" s="8">
+        <f>T184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="X184" s="8">
+        <f>W184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y184" s="8">
+        <f>W184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Z184" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA184" s="8">
+        <f>Z184*0.75</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AB184" s="8">
+        <f>Z184*1.25</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="L185" s="8">
+        <f>K185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M185" s="8">
+        <f>K185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O185" s="8">
+        <f>N185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P185" s="8">
+        <f>N185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="R185" s="8">
+        <f>Q185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S185" s="8">
+        <f>Q185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="U185" s="8">
+        <f>T185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="V185" s="8">
+        <f>T185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="W185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="X185" s="8">
+        <f>W185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Y185" s="8">
+        <f>W185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Z185" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA185" s="8">
+        <f>Z185*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AB185" s="8">
+        <f>Z185*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="L186" s="8">
+        <f>K186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="M186" s="8">
+        <f>K186*1.25</f>
+        <v>0.3</v>
+      </c>
+      <c r="N186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="O186" s="8">
+        <f>N186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="P186" s="8">
+        <f>N186*1.25</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="R186" s="8">
+        <f>Q186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="S186" s="8">
+        <f>Q186*1.25</f>
+        <v>0.3</v>
+      </c>
+      <c r="T186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="U186" s="8">
+        <f>T186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="V186" s="8">
+        <f>T186*1.25</f>
+        <v>0.3</v>
+      </c>
+      <c r="W186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="X186" s="8">
+        <f>W186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="Y186" s="8">
+        <f>W186*1.25</f>
+        <v>0.3</v>
+      </c>
+      <c r="Z186" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="AA186" s="8">
+        <f>Z186*0.75</f>
+        <v>0.18</v>
+      </c>
+      <c r="AB186" s="8">
+        <f>Z186*1.25</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="L187" s="8">
+        <f>K187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M187" s="8">
+        <f>K187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="N187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O187" s="8">
+        <f>N187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P187" s="8">
+        <f>N187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Q187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="R187" s="8">
+        <f>Q187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S187" s="8">
+        <f>Q187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="T187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="U187" s="8">
+        <f>T187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="V187" s="8">
+        <f>T187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="W187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="X187" s="8">
+        <f>W187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Y187" s="8">
+        <f>W187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Z187" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA187" s="8">
+        <f>Z187*0.75</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AB187" s="8">
+        <f>Z187*1.25</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H188" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J188" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K188" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L188" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M188" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N188" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O188" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P188" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q188" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="R188" s="17">
+        <f>Q188*0.95</f>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="S188" s="17">
+        <f>Q188*1.05</f>
+        <v>0.189</v>
+      </c>
+      <c r="T188" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="U188" s="17">
+        <f>T188*0.95</f>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="V188" s="17">
+        <f>T188*1.05</f>
+        <v>0.189</v>
+      </c>
+      <c r="W188" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="X188" s="17">
+        <f>W188*0.95</f>
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="Y188" s="17">
+        <f>W188*1.05</f>
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="Z188" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="AA188" s="17">
+        <f>Z188*0.95</f>
+        <v>0.19</v>
+      </c>
+      <c r="AB188" s="17">
+        <f>Z188*1.05</f>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J189" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K189" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L189" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M189" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N189" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O189" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P189" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q189" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="R189" s="17">
+        <f>Q189*0.95</f>
+        <v>0.19</v>
+      </c>
+      <c r="S189" s="17">
+        <f>Q189*1.05</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="T189" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="U189" s="17">
+        <f>T189*0.95</f>
+        <v>0.19</v>
+      </c>
+      <c r="V189" s="17">
+        <f>T189*1.05</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="W189" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="X189" s="17">
+        <f>W189*0.95</f>
+        <v>0.19949999999999998</v>
+      </c>
+      <c r="Y189" s="17">
+        <f>W189*1.05</f>
+        <v>0.2205</v>
+      </c>
+      <c r="Z189" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="AA189" s="17">
+        <f>Z189*0.95</f>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AB189" s="17">
+        <f>Z189*1.05</f>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H190" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J190" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L190" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M190" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N190" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O190" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P190" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q190" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="R190" s="17">
+        <f>Q190*0.95</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="S190" s="17">
+        <f>Q190*1.05</f>
+        <v>0.252</v>
+      </c>
+      <c r="T190" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="U190" s="17">
+        <f>T190*0.95</f>
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="V190" s="17">
+        <f>T190*1.05</f>
+        <v>0.252</v>
+      </c>
+      <c r="W190" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="X190" s="17">
+        <f>W190*0.95</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="Y190" s="17">
+        <f>W190*1.05</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="Z190" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="AA190" s="17">
+        <f>Z190*0.95</f>
+        <v>0.247</v>
+      </c>
+      <c r="AB190" s="17">
+        <f>Z190*1.05</f>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J191" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L191" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M191" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N191" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O191" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P191" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q191" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R191" s="17">
+        <f t="shared" ref="R191:R197" si="267">Q191*0.95</f>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S191" s="17">
+        <f t="shared" ref="S191:S197" si="268">Q191*1.05</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="T191" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="U191" s="17">
+        <f t="shared" ref="U191:U197" si="269">T191*0.95</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="V191" s="17">
+        <f t="shared" ref="V191:V197" si="270">T191*1.05</f>
+        <v>0.315</v>
+      </c>
+      <c r="W191" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="X191" s="17">
+        <f t="shared" ref="X191:X197" si="271">W191*0.95</f>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="Y191" s="17">
+        <f t="shared" ref="Y191:Y197" si="272">W191*1.05</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Z191" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="AA191" s="17">
+        <f t="shared" ref="AA191:AA197" si="273">Z191*0.95</f>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AB191" s="17">
+        <f t="shared" ref="AB191:AB197" si="274">Z191*1.05</f>
+        <v>0.35700000000000004</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K192" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L192" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M192" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N192" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O192" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P192" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q192" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="R192" s="17">
+        <f t="shared" si="267"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="S192" s="17">
+        <f t="shared" si="268"/>
+        <v>0.35700000000000004</v>
+      </c>
+      <c r="T192" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="U192" s="17">
+        <f t="shared" si="269"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="V192" s="17">
+        <f t="shared" si="270"/>
+        <v>0.35700000000000004</v>
+      </c>
+      <c r="W192" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="X192" s="17">
+        <f t="shared" si="271"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="Y192" s="17">
+        <f t="shared" si="272"/>
+        <v>0.378</v>
+      </c>
+      <c r="Z192" s="18">
+        <v>0.38</v>
+      </c>
+      <c r="AA192" s="17">
+        <f t="shared" si="273"/>
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="AB192" s="17">
+        <f t="shared" si="274"/>
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H193" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J193" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K193" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L193" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M193" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N193" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O193" s="17">
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="P193" s="17">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="Q193" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R193" s="17">
+        <f t="shared" si="267"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S193" s="17">
+        <f t="shared" si="268"/>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="T193" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="U193" s="17">
+        <f t="shared" si="269"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="V193" s="17">
+        <f t="shared" si="270"/>
+        <v>0.315</v>
+      </c>
+      <c r="W193" s="18">
+        <v>0.32</v>
+      </c>
+      <c r="X193" s="17">
+        <f t="shared" si="271"/>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="Y193" s="17">
+        <f t="shared" si="272"/>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="Z193" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="AA193" s="17">
+        <f t="shared" si="273"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AB193" s="17">
+        <f t="shared" si="274"/>
+        <v>0.35700000000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H194" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J194" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K194" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L194" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M194" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N194" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O194" s="17">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P194" s="17">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="Q194" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="R194" s="17">
+        <f t="shared" si="267"/>
+        <v>0.152</v>
+      </c>
+      <c r="S194" s="17">
+        <f t="shared" si="268"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="T194" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="U194" s="17">
+        <f t="shared" si="269"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="V194" s="17">
+        <f t="shared" si="270"/>
+        <v>0.189</v>
+      </c>
+      <c r="W194" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="X194" s="17">
+        <f t="shared" si="271"/>
+        <v>0.19</v>
+      </c>
+      <c r="Y194" s="17">
+        <f t="shared" si="272"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="Z194" s="18">
+        <v>0.22</v>
+      </c>
+      <c r="AA194" s="17">
+        <f t="shared" si="273"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AB194" s="17">
+        <f t="shared" si="274"/>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H195" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J195" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L195" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M195" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N195" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O195" s="17">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P195" s="17">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="Q195" s="18">
+        <v>0.62</v>
+      </c>
+      <c r="R195" s="17">
+        <f t="shared" si="267"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S195" s="17">
+        <f t="shared" si="268"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="T195" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="U195" s="17">
+        <f t="shared" si="269"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="V195" s="17">
+        <f t="shared" si="270"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="W195" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="X195" s="17">
+        <f t="shared" si="271"/>
+        <v>0.76</v>
+      </c>
+      <c r="Y195" s="17">
+        <f t="shared" si="272"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Z195" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="AA195" s="17">
+        <f t="shared" si="273"/>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="AB195" s="17">
+        <f t="shared" si="274"/>
+        <v>0.97650000000000015</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H196" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J196" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K196" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L196" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M196" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N196" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O196" s="17">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P196" s="17">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="Q196" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="R196" s="17">
+        <f t="shared" si="267"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="S196" s="17">
+        <f t="shared" si="268"/>
+        <v>0.1575</v>
+      </c>
+      <c r="T196" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="U196" s="17">
+        <f t="shared" si="269"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="V196" s="17">
+        <f t="shared" si="270"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="W196" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="X196" s="17">
+        <f t="shared" si="271"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="Y196" s="17">
+        <f t="shared" si="272"/>
+        <v>0.315</v>
+      </c>
+      <c r="Z196" s="18">
+        <v>0.34</v>
+      </c>
+      <c r="AA196" s="17">
+        <f t="shared" si="273"/>
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AB196" s="17">
+        <f t="shared" si="274"/>
+        <v>0.35700000000000004</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G197" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J197" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K197" s="16">
+        <v>0.05</v>
+      </c>
+      <c r="L197" s="17">
+        <v>4.5000000000000005E-2</v>
+      </c>
+      <c r="M197" s="17">
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="N197" s="16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O197" s="17">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P197" s="17">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="Q197" s="18">
+        <v>0.157</v>
+      </c>
+      <c r="R197" s="17">
+        <f t="shared" si="267"/>
+        <v>0.14915</v>
+      </c>
+      <c r="S197" s="17">
+        <f t="shared" si="268"/>
+        <v>0.16485</v>
+      </c>
+      <c r="T197" s="18">
+        <v>0.157</v>
+      </c>
+      <c r="U197" s="17">
+        <f t="shared" si="269"/>
+        <v>0.14915</v>
+      </c>
+      <c r="V197" s="17">
+        <f t="shared" si="270"/>
+        <v>0.16485</v>
+      </c>
+      <c r="W197" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="X197" s="17">
+        <f t="shared" si="271"/>
+        <v>0.17099999999999999</v>
+      </c>
+      <c r="Y197" s="17">
+        <f t="shared" si="272"/>
+        <v>0.189</v>
+      </c>
+      <c r="Z197" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="AA197" s="17">
+        <f t="shared" si="273"/>
+        <v>0.19</v>
+      </c>
+      <c r="AB197" s="17">
+        <f t="shared" si="274"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H198" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J198" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K198" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L198" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M198" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N198" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="O198" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P198" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Q198" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="R198" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="S198" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="T198" s="17">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="U198" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="V198" s="17">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="W198" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="X198" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="Y198" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="Z198" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="AA198" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="AB198" s="17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H199" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J199" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K199" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L199" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M199" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N199" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O199" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P199" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q199" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R199" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S199" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T199" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U199" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V199" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W199" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X199" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y199" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z199" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA199" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB199" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J200" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K200" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L200" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M200" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N200" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O200" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P200" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q200" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R200" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S200" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T200" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U200" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V200" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W200" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X200" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y200" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z200" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA200" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB200" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J201" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K201" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L201" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M201" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N201" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O201" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P201" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q201" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R201" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S201" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T201" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U201" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V201" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W201" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X201" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y201" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z201" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA201" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB201" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J202" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K202" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L202" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M202" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N202" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O202" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P202" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q202" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R202" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S202" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T202" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U202" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V202" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W202" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X202" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y202" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z202" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA202" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB202" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H203" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J203" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K203" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L203" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M203" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N203" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O203" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P203" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q203" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R203" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S203" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T203" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U203" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V203" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W203" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X203" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y203" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z203" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA203" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB203" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J204" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K204" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L204" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M204" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N204" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O204" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P204" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q204" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R204" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S204" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T204" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U204" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V204" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W204" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X204" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y204" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z204" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA204" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB204" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H205" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K205" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L205" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M205" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N205" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O205" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P205" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q205" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R205" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S205" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T205" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U205" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V205" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W205" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X205" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y205" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z205" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA205" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB205" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J206" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K206" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L206" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M206" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N206" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O206" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P206" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q206" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R206" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S206" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T206" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U206" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V206" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W206" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X206" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y206" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z206" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA206" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB206" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H207" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J207" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K207" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="L207" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M207" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="N207" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="O207" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="P207" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="Q207" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="R207" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="S207" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="T207" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="U207" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="V207" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="W207" s="18">
+        <v>0.77</v>
+      </c>
+      <c r="X207" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="Y207" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="Z207" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="AA207" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="AB207" s="17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L208" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M208" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O208" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P208" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R208" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S208" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T208" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V208" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W208" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y208" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z208" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA208" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB208" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="L209" s="5">
+        <v>1125</v>
+      </c>
+      <c r="M209" s="5">
+        <v>1875</v>
+      </c>
+      <c r="N209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="O209" s="5">
+        <v>1125</v>
+      </c>
+      <c r="P209" s="5">
+        <v>1875</v>
+      </c>
+      <c r="Q209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="R209" s="5">
+        <v>1125</v>
+      </c>
+      <c r="S209" s="5">
+        <v>1875</v>
+      </c>
+      <c r="T209" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="V209" s="5">
+        <v>2500</v>
+      </c>
+      <c r="W209" s="5">
+        <v>2000</v>
+      </c>
+      <c r="X209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Y209" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Z209" s="5">
+        <v>2000</v>
+      </c>
+      <c r="AA209" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AB209" s="5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K210" s="5">
+        <v>7000</v>
+      </c>
+      <c r="L210" s="5">
+        <v>5250</v>
+      </c>
+      <c r="M210" s="5">
+        <v>8750</v>
+      </c>
+      <c r="N210" s="5">
+        <v>7000</v>
+      </c>
+      <c r="O210" s="4">
+        <v>5250</v>
+      </c>
+      <c r="P210" s="4">
+        <v>8750</v>
+      </c>
+      <c r="Q210" s="5">
+        <v>7000</v>
+      </c>
+      <c r="R210" s="4">
+        <v>5250</v>
+      </c>
+      <c r="S210" s="4">
+        <v>8750</v>
+      </c>
+      <c r="T210" s="4">
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="U210" s="4">
+        <v>5775.0000000000009</v>
+      </c>
+      <c r="V210" s="4">
+        <v>9625.0000000000018</v>
+      </c>
+      <c r="W210" s="4">
+        <v>8470.0000000000018</v>
+      </c>
+      <c r="X210" s="4">
+        <v>6352.5000000000018</v>
+      </c>
+      <c r="Y210" s="4">
+        <v>10587.500000000002</v>
+      </c>
+      <c r="Z210" s="4">
+        <v>9317.0000000000036</v>
+      </c>
+      <c r="AA210" s="4">
+        <v>6987.7500000000027</v>
+      </c>
+      <c r="AB210" s="4">
+        <v>11646.250000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K211" s="5">
+        <v>7000</v>
+      </c>
+      <c r="L211" s="5">
+        <v>5250</v>
+      </c>
+      <c r="M211" s="5">
+        <v>8750</v>
+      </c>
+      <c r="N211" s="5">
+        <v>7000</v>
+      </c>
+      <c r="O211" s="4">
+        <v>5250</v>
+      </c>
+      <c r="P211" s="4">
+        <v>8750</v>
+      </c>
+      <c r="Q211" s="5">
+        <v>7000</v>
+      </c>
+      <c r="R211" s="4">
+        <v>5250</v>
+      </c>
+      <c r="S211" s="4">
+        <v>8750</v>
+      </c>
+      <c r="T211" s="4">
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="U211" s="4">
+        <v>5775.0000000000009</v>
+      </c>
+      <c r="V211" s="4">
+        <v>9625.0000000000018</v>
+      </c>
+      <c r="W211" s="4">
+        <v>8470.0000000000018</v>
+      </c>
+      <c r="X211" s="4">
+        <v>6352.5000000000018</v>
+      </c>
+      <c r="Y211" s="4">
+        <v>10587.500000000002</v>
+      </c>
+      <c r="Z211" s="4">
+        <v>9317.0000000000036</v>
+      </c>
+      <c r="AA211" s="4">
+        <v>6987.7500000000027</v>
+      </c>
+      <c r="AB211" s="4">
+        <v>11646.250000000004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L212" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M212" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O212" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P212" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R212" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S212" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T212" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V212" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W212" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y212" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z212" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA212" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB212" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L213" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M213" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O213" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P213" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R213" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S213" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T213" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V213" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W213" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y213" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z213" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA213" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB213" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L214" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M214" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O214" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P214" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R214" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S214" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T214" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V214" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W214" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y214" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z214" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA214" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB214" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L215" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M215" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O215" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P215" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R215" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S215" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T215" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V215" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W215" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y215" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z215" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA215" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB215" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L216" s="5">
+        <v>2250</v>
+      </c>
+      <c r="M216" s="5">
+        <v>3750</v>
+      </c>
+      <c r="N216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O216" s="5">
+        <v>2250</v>
+      </c>
+      <c r="P216" s="5">
+        <v>3750</v>
+      </c>
+      <c r="Q216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="R216" s="5">
+        <v>2250</v>
+      </c>
+      <c r="S216" s="5">
+        <v>3750</v>
+      </c>
+      <c r="T216" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="V216" s="5">
+        <v>5000</v>
+      </c>
+      <c r="W216" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Y216" s="5">
+        <v>5000</v>
+      </c>
+      <c r="Z216" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA216" s="5">
+        <v>3000</v>
+      </c>
+      <c r="AB216" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="L217" s="8">
+        <f>K217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="M217" s="8">
+        <f>K217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="N217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="O217" s="8">
+        <f>N217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="P217" s="8">
+        <f>N217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="Q217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="R217" s="8">
+        <f>Q217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="S217" s="8">
+        <f>Q217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="T217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="U217" s="8">
+        <f t="shared" ref="U217" si="275">T217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="V217" s="8">
+        <f t="shared" ref="V217" si="276">T217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="W217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="X217" s="8">
+        <f t="shared" ref="X217" si="277">W217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="Y217" s="8">
+        <f t="shared" ref="Y217" si="278">W217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="Z217" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AA217" s="8">
+        <f t="shared" ref="AA217" si="279">Z217*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="AB217" s="8">
+        <f t="shared" ref="AB217" si="280">Z217*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="L218" s="8">
+        <f>K218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="M218" s="8">
+        <f>K218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="N218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="O218" s="8">
+        <f>N218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="P218" s="8">
+        <f>N218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="Q218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="R218" s="8">
+        <f>Q218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="S218" s="8">
+        <f>Q218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="T218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="U218" s="8">
+        <f t="shared" ref="U218:U220" si="281">T218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="V218" s="8">
+        <f t="shared" ref="V218:V220" si="282">T218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="W218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="X218" s="8">
+        <f t="shared" ref="X218:X220" si="283">W218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Y218" s="8">
+        <f t="shared" ref="Y218:Y220" si="284">W218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="Z218" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AA218" s="8">
+        <f t="shared" ref="AA218:AA220" si="285">Z218*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="AB218" s="8">
+        <f t="shared" ref="AB218:AB220" si="286">Z218*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L219" s="8">
+        <f>K219*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="M219" s="8">
+        <f>K219*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O219" s="8">
+        <f>N219*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="P219" s="8">
+        <f>N219*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="R219" s="8">
+        <f>Q219*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="S219" s="8">
+        <f>Q219*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="T219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="U219" s="8">
+        <f t="shared" si="281"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="V219" s="8">
+        <f t="shared" si="282"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="W219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X219" s="8">
+        <f t="shared" si="283"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="Y219" s="8">
+        <f t="shared" si="284"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Z219" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AA219" s="8">
+        <f t="shared" si="285"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="AB219" s="8">
+        <f t="shared" si="286"/>
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L220" s="8">
+        <f>K220*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="M220" s="8">
+        <f>K220*1.05</f>
+        <v>0.1575</v>
+      </c>
+      <c r="N220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="O220" s="8">
+        <f>N220*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="P220" s="8">
+        <f>N220*1.05</f>
+        <v>0.1575</v>
+      </c>
+      <c r="Q220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="R220" s="8">
+        <f>Q220*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="S220" s="8">
+        <f>Q220*1.05</f>
+        <v>0.1575</v>
+      </c>
+      <c r="T220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="U220" s="8">
+        <f t="shared" si="281"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="V220" s="8">
+        <f t="shared" si="282"/>
+        <v>0.1575</v>
+      </c>
+      <c r="W220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="X220" s="8">
+        <f t="shared" si="283"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="Y220" s="8">
+        <f t="shared" si="284"/>
+        <v>0.1575</v>
+      </c>
+      <c r="Z220" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AA220" s="8">
+        <f t="shared" si="285"/>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="AB220" s="8">
+        <f t="shared" si="286"/>
+        <v>0.1575</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AB183" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:AB216" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="average passengers"/>
+        <filter val="engine efficiency"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_tw.xlsx
+++ b/dev/Input data_tw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_two_wheeler/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1946D27A-E08E-EA47-9525-705A33EE5F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233662E-37E7-0D47-9555-3EE641D6A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22040" windowHeight="22720" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="660" windowWidth="22040" windowHeight="22720" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="225">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -703,6 +703,15 @@
   </si>
   <si>
     <t>battery cycle life, NMC-955</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-S</t>
+  </si>
+  <si>
+    <t>battery cycle life, SiB</t>
   </si>
 </sst>
 </file>
@@ -1177,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT200"/>
+  <dimension ref="A1:AT203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="10" ySplit="2" topLeftCell="Y164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D209" sqref="D209"/>
+      <selection pane="bottomRight" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -19439,6 +19448,264 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A201" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M201" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P201" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S201" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V201" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y201" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z201" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA201" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB201" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K202" s="5">
+        <f>AVERAGE(L202,M202)</f>
+        <v>1150</v>
+      </c>
+      <c r="L202" s="5">
+        <v>800</v>
+      </c>
+      <c r="M202" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N202" s="5">
+        <f>AVERAGE(O202,P202)</f>
+        <v>1150</v>
+      </c>
+      <c r="O202" s="5">
+        <v>800</v>
+      </c>
+      <c r="P202" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q202" s="5">
+        <f>AVERAGE(R202,S202)</f>
+        <v>1150</v>
+      </c>
+      <c r="R202" s="5">
+        <v>800</v>
+      </c>
+      <c r="S202" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T202" s="5">
+        <f>AVERAGE(U202,V202)</f>
+        <v>1150</v>
+      </c>
+      <c r="U202" s="5">
+        <v>800</v>
+      </c>
+      <c r="V202" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W202" s="5">
+        <f>AVERAGE(X202,Y202)</f>
+        <v>1150</v>
+      </c>
+      <c r="X202" s="5">
+        <v>800</v>
+      </c>
+      <c r="Y202" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z202" s="5">
+        <f>AVERAGE(AA202,AB202)</f>
+        <v>1150</v>
+      </c>
+      <c r="AA202" s="5">
+        <v>800</v>
+      </c>
+      <c r="AB202" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K203" s="5">
+        <f>AVERAGE(L203,M203)</f>
+        <v>3250</v>
+      </c>
+      <c r="L203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M203" s="5">
+        <v>4000</v>
+      </c>
+      <c r="N203" s="5">
+        <f>AVERAGE(O203,P203)</f>
+        <v>3250</v>
+      </c>
+      <c r="O203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="P203" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Q203" s="5">
+        <f>AVERAGE(R203,S203)</f>
+        <v>3250</v>
+      </c>
+      <c r="R203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="S203" s="5">
+        <v>4000</v>
+      </c>
+      <c r="T203" s="5">
+        <f>AVERAGE(U203,V203)</f>
+        <v>3250</v>
+      </c>
+      <c r="U203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="V203" s="5">
+        <v>4000</v>
+      </c>
+      <c r="W203" s="5">
+        <f>AVERAGE(X203,Y203)</f>
+        <v>3250</v>
+      </c>
+      <c r="X203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Y203" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Z203" s="5">
+        <f>AVERAGE(AA203,AB203)</f>
+        <v>3250</v>
+      </c>
+      <c r="AA203" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AB203" s="5">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:AB192" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/dev/Input data_tw.xlsx
+++ b/dev/Input data_tw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_two_wheeler/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_two_wheeler/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A51B97-B31D-9E4B-81AB-EB546B438E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B0917-F03A-D045-864E-9ADCDC60939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10660" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9480" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="231">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -721,6 +721,15 @@
   </si>
   <si>
     <t>Moped &lt;4kW, Motorcycle 11-35kW, Motorcycle 4-11kW, Motorcycle &gt;35kW, Scooter 4-11kW, Scooter &lt;4kW</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-S</t>
+  </si>
+  <si>
+    <t>battery cycle life, SiB</t>
   </si>
 </sst>
 </file>
@@ -894,7 +903,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1198,14 +1207,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AT220"/>
+  <dimension ref="A1:AT223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1978,7 +1986,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2064,7 +2072,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2158,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2664,7 +2672,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -2836,7 +2844,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2982,7 +2990,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -3042,7 +3050,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -3102,7 +3110,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -3162,7 +3170,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +3582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -3902,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +3992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>16</v>
       </c>
@@ -4066,7 +4074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>16</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
@@ -4230,7 +4238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>16</v>
       </c>
@@ -4476,7 +4484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
@@ -4558,7 +4566,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>16</v>
       </c>
@@ -4640,7 +4648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>16</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>16</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>13.043478260869565</v>
       </c>
     </row>
-    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>16</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>16</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>6.6666666666666661</v>
       </c>
     </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>16</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>35.744680851063826</v>
       </c>
     </row>
-    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>16</v>
       </c>
@@ -5524,7 +5532,7 @@
         <v>30.89108910891089</v>
       </c>
     </row>
-    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>16</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>81.230769230769226</v>
       </c>
     </row>
-    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>16</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>55.877862595419849</v>
       </c>
     </row>
-    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>16</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>88.52459016393442</v>
       </c>
     </row>
-    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>16</v>
       </c>
@@ -5924,7 +5932,7 @@
         <v>53.714285714285708</v>
       </c>
     </row>
-    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>16</v>
       </c>
@@ -6024,7 +6032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>16</v>
       </c>
@@ -6124,7 +6132,7 @@
         <v>101.20481927710843</v>
       </c>
     </row>
-    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>16</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>230.58823529411762</v>
       </c>
     </row>
-    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>16</v>
       </c>
@@ -6386,7 +6394,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>17</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>0.35200000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>17</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>0.6160000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>17</v>
       </c>
@@ -6680,7 +6688,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>17</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>7.7000000000000013E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>17</v>
       </c>
@@ -6876,7 +6884,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>17</v>
       </c>
@@ -6974,7 +6982,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>17</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>0.84700000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>17</v>
       </c>
@@ -7170,7 +7178,7 @@
         <v>1.2869999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>17</v>
       </c>
@@ -7268,7 +7276,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>17</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>17</v>
       </c>
@@ -7464,7 +7472,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>17</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>0.42900000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>17</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>17</v>
       </c>
@@ -7758,7 +7766,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>17</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>17</v>
       </c>
@@ -7954,7 +7962,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>17</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>0.20900000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>17</v>
       </c>
@@ -8150,7 +8158,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>17</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>17</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
@@ -8444,7 +8452,7 @@
         <v>1.7600000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>88</v>
       </c>
@@ -8542,7 +8550,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -8640,7 +8648,7 @@
         <v>5.1700000000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>88</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>88</v>
       </c>
@@ -8836,7 +8844,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>88</v>
       </c>
@@ -8934,7 +8942,7 @@
         <v>30.910000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>88</v>
       </c>
@@ -9032,7 +9040,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>88</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>88</v>
       </c>
@@ -9314,7 +9322,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>88</v>
       </c>
@@ -9400,7 +9408,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>88</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>88</v>
       </c>
@@ -9584,7 +9592,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
@@ -9670,7 +9678,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>18</v>
       </c>
@@ -9762,7 +9770,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>18</v>
       </c>
@@ -9818,7 +9826,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -9914,7 +9922,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>18</v>
       </c>
@@ -10106,7 +10114,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -10202,7 +10210,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>18</v>
       </c>
@@ -10294,7 +10302,7 @@
         <v>0.95481000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -10380,7 +10388,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>18</v>
       </c>
@@ -10466,7 +10474,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -10552,7 +10560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>18</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -10730,7 +10738,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>18</v>
       </c>
@@ -10816,7 +10824,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -10914,7 +10922,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>16</v>
       </c>
@@ -11012,7 +11020,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>16</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>16</v>
       </c>
@@ -11208,7 +11216,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>16</v>
       </c>
@@ -11306,7 +11314,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>16</v>
       </c>
@@ -11404,7 +11412,7 @@
         <v>1.2100000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>16</v>
       </c>
@@ -11508,7 +11516,7 @@
         <v>1.3915</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>16</v>
       </c>
@@ -11606,7 +11614,7 @@
         <v>0.82500000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>16</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>16</v>
       </c>
@@ -11802,7 +11810,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>16</v>
       </c>
@@ -11900,7 +11908,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>16</v>
       </c>
@@ -11998,7 +12006,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>16</v>
       </c>
@@ -12096,7 +12104,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>16</v>
       </c>
@@ -12194,7 +12202,7 @@
         <v>1.1770000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>16</v>
       </c>
@@ -12292,7 +12300,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>88</v>
       </c>
@@ -12388,7 +12396,7 @@
         <v>5.7750000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>88</v>
       </c>
@@ -12484,7 +12492,7 @@
         <v>7.4250000000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>88</v>
       </c>
@@ -12580,7 +12588,7 @@
         <v>12.375000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>88</v>
       </c>
@@ -12676,7 +12684,7 @@
         <v>14.850000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>88</v>
       </c>
@@ -13061,7 +13069,7 @@
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -13157,7 +13165,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>17</v>
       </c>
@@ -13253,7 +13261,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
@@ -13349,7 +13357,7 @@
         <v>1.0395000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>17</v>
       </c>
@@ -13409,7 +13417,7 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
     </row>
-    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>17</v>
       </c>
@@ -13469,7 +13477,7 @@
       <c r="AA135" s="8"/>
       <c r="AB135" s="8"/>
     </row>
-    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>88</v>
       </c>
@@ -13565,7 +13573,7 @@
         <v>1.4300000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>88</v>
       </c>
@@ -13667,7 +13675,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>88</v>
       </c>
@@ -13769,7 +13777,7 @@
         <v>0.35750000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>88</v>
       </c>
@@ -13871,7 +13879,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>88</v>
       </c>
@@ -13973,7 +13981,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>88</v>
       </c>
@@ -14075,7 +14083,7 @@
         <v>0.30937500000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>88</v>
       </c>
@@ -14179,7 +14187,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>88</v>
       </c>
@@ -14281,7 +14289,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>88</v>
       </c>
@@ -14383,7 +14391,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>88</v>
       </c>
@@ -14485,7 +14493,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>88</v>
       </c>
@@ -14587,7 +14595,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>88</v>
       </c>
@@ -14689,7 +14697,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>17</v>
       </c>
@@ -14762,7 +14770,7 @@
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
     </row>
-    <row r="149" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>17</v>
       </c>
@@ -14873,7 +14881,7 @@
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
     </row>
-    <row r="150" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>17</v>
       </c>
@@ -14984,7 +14992,7 @@
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
     </row>
-    <row r="151" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>17</v>
       </c>
@@ -15042,7 +15050,7 @@
       <c r="AA151" s="11"/>
       <c r="AB151" s="11"/>
     </row>
-    <row r="152" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>17</v>
       </c>
@@ -15161,7 +15169,7 @@
       <c r="AS152" s="1"/>
       <c r="AT152" s="1"/>
     </row>
-    <row r="153" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>17</v>
       </c>
@@ -15280,7 +15288,7 @@
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
     </row>
-    <row r="154" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>17</v>
       </c>
@@ -15393,7 +15401,7 @@
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
     </row>
-    <row r="155" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>140</v>
       </c>
@@ -15495,7 +15503,7 @@
       <c r="AS155" s="1"/>
       <c r="AT155" s="1"/>
     </row>
-    <row r="156" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>140</v>
       </c>
@@ -15597,7 +15605,7 @@
       <c r="AS156" s="1"/>
       <c r="AT156" s="1"/>
     </row>
-    <row r="157" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>140</v>
       </c>
@@ -15697,7 +15705,7 @@
       <c r="AS157" s="1"/>
       <c r="AT157" s="1"/>
     </row>
-    <row r="158" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>140</v>
       </c>
@@ -15797,7 +15805,7 @@
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
     </row>
-    <row r="159" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>140</v>
       </c>
@@ -15897,7 +15905,7 @@
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
     </row>
-    <row r="160" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>140</v>
       </c>
@@ -15999,7 +16007,7 @@
       <c r="AS160" s="1"/>
       <c r="AT160" s="1"/>
     </row>
-    <row r="161" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>140</v>
       </c>
@@ -16101,7 +16109,7 @@
       <c r="AS161" s="1"/>
       <c r="AT161" s="1"/>
     </row>
-    <row r="162" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>140</v>
       </c>
@@ -16203,7 +16211,7 @@
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
     </row>
-    <row r="163" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>140</v>
       </c>
@@ -16305,7 +16313,7 @@
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
     </row>
-    <row r="164" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>140</v>
       </c>
@@ -16369,7 +16377,7 @@
       <c r="AS164" s="1"/>
       <c r="AT164" s="1"/>
     </row>
-    <row r="165" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>140</v>
       </c>
@@ -16433,7 +16441,7 @@
       <c r="AS165" s="1"/>
       <c r="AT165" s="1"/>
     </row>
-    <row r="166" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>140</v>
       </c>
@@ -16535,7 +16543,7 @@
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
     </row>
-    <row r="167" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>140</v>
       </c>
@@ -16637,7 +16645,7 @@
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
     </row>
-    <row r="168" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>140</v>
       </c>
@@ -16739,7 +16747,7 @@
       <c r="AS168" s="1"/>
       <c r="AT168" s="1"/>
     </row>
-    <row r="169" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>140</v>
       </c>
@@ -16841,7 +16849,7 @@
       <c r="AS169" s="1"/>
       <c r="AT169" s="1"/>
     </row>
-    <row r="170" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>140</v>
       </c>
@@ -16943,7 +16951,7 @@
       <c r="AS170" s="1"/>
       <c r="AT170" s="1"/>
     </row>
-    <row r="171" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>140</v>
       </c>
@@ -17043,7 +17051,7 @@
       <c r="AS171" s="1"/>
       <c r="AT171" s="1"/>
     </row>
-    <row r="172" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>140</v>
       </c>
@@ -17143,7 +17151,7 @@
       <c r="AS172" s="1"/>
       <c r="AT172" s="1"/>
     </row>
-    <row r="173" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>140</v>
       </c>
@@ -17245,7 +17253,7 @@
       <c r="AS173" s="1"/>
       <c r="AT173" s="1"/>
     </row>
-    <row r="174" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>140</v>
       </c>
@@ -17347,7 +17355,7 @@
       <c r="AS174" s="1"/>
       <c r="AT174" s="1"/>
     </row>
-    <row r="175" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>140</v>
       </c>
@@ -17432,7 +17440,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>140</v>
       </c>
@@ -17515,7 +17523,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>88</v>
       </c>
@@ -17610,7 +17618,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>88</v>
       </c>
@@ -17705,7 +17713,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>88</v>
       </c>
@@ -17800,7 +17808,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="180" spans="1:29" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>88</v>
       </c>
@@ -17848,7 +17856,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="181" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16" t="s">
         <v>18</v>
       </c>
@@ -17935,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>18</v>
       </c>
@@ -18033,7 +18041,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>18</v>
       </c>
@@ -18515,7 +18523,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
         <v>18</v>
       </c>
@@ -18606,7 +18614,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
         <v>18</v>
       </c>
@@ -18697,7 +18705,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
         <v>18</v>
       </c>
@@ -18788,7 +18796,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16" t="s">
         <v>18</v>
       </c>
@@ -18879,7 +18887,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
         <v>18</v>
       </c>
@@ -18970,7 +18978,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
         <v>18</v>
       </c>
@@ -19061,7 +19069,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="194" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
         <v>18</v>
       </c>
@@ -19152,7 +19160,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
         <v>18</v>
       </c>
@@ -19243,7 +19251,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="196" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
         <v>18</v>
       </c>
@@ -19334,7 +19342,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16" t="s">
         <v>18</v>
       </c>
@@ -19425,7 +19433,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
         <v>18</v>
       </c>
@@ -19502,7 +19510,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="199" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16" t="s">
         <v>18</v>
       </c>
@@ -19579,7 +19587,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="200" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="16" t="s">
         <v>18</v>
       </c>
@@ -19656,7 +19664,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="201" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="16" t="s">
         <v>18</v>
       </c>
@@ -19733,7 +19741,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="202" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="16" t="s">
         <v>18</v>
       </c>
@@ -19810,7 +19818,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="203" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
         <v>18</v>
       </c>
@@ -19887,7 +19895,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="204" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
         <v>18</v>
       </c>
@@ -19964,7 +19972,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="205" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
         <v>18</v>
       </c>
@@ -20041,7 +20049,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="206" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
         <v>18</v>
       </c>
@@ -20118,7 +20126,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="207" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
         <v>18</v>
       </c>
@@ -20195,7 +20203,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -20279,7 +20287,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>18</v>
       </c>
@@ -20363,7 +20371,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>18</v>
       </c>
@@ -20447,7 +20455,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -20531,7 +20539,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>18</v>
       </c>
@@ -20615,7 +20623,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>18</v>
       </c>
@@ -20699,7 +20707,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -20783,7 +20791,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>18</v>
       </c>
@@ -20867,7 +20875,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>18</v>
       </c>
@@ -20953,290 +20961,260 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F217" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G217" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H217" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J217" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="L217" s="8">
-        <f>K217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="M217" s="8">
-        <f>K217*1.05</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="N217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="O217" s="8">
-        <f>N217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="P217" s="8">
-        <f>N217*1.05</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="Q217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="R217" s="8">
-        <f>Q217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="S217" s="8">
-        <f>Q217*1.05</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="T217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="U217" s="8">
-        <f t="shared" ref="U217" si="275">T217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="V217" s="8">
-        <f t="shared" ref="V217" si="276">T217*1.05</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="W217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="X217" s="8">
-        <f t="shared" ref="X217" si="277">W217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="Y217" s="8">
-        <f t="shared" ref="Y217" si="278">W217*1.05</f>
-        <v>0.78750000000000009</v>
-      </c>
-      <c r="Z217" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="AA217" s="8">
-        <f t="shared" ref="AA217" si="279">Z217*0.95</f>
-        <v>0.71249999999999991</v>
-      </c>
-      <c r="AB217" s="8">
-        <f t="shared" ref="AB217" si="280">Z217*1.05</f>
-        <v>0.78750000000000009</v>
+      <c r="K217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="L217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="M217" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="O217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P217" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="R217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="S217" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="U217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="V217" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="X217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Y217" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z217" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AA217" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AB217" s="5">
+        <v>1500</v>
       </c>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F218" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G218" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H218" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J218" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="L218" s="8">
-        <f>K218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="M218" s="8">
-        <f>K218*1.05</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="N218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="O218" s="8">
-        <f>N218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="P218" s="8">
-        <f>N218*1.05</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="Q218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="R218" s="8">
-        <f>Q218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="S218" s="8">
-        <f>Q218*1.05</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="T218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="U218" s="8">
-        <f t="shared" ref="U218:U220" si="281">T218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="V218" s="8">
-        <f t="shared" ref="V218:V220" si="282">T218*1.05</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="W218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="X218" s="8">
-        <f t="shared" ref="X218:X220" si="283">W218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="Y218" s="8">
-        <f t="shared" ref="Y218:Y220" si="284">W218*1.05</f>
-        <v>0.47250000000000003</v>
-      </c>
-      <c r="Z218" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="AA218" s="8">
-        <f t="shared" ref="AA218:AA220" si="285">Z218*0.95</f>
-        <v>0.42749999999999999</v>
-      </c>
-      <c r="AB218" s="8">
-        <f t="shared" ref="AB218:AB220" si="286">Z218*1.05</f>
-        <v>0.47250000000000003</v>
+      <c r="K218" s="5">
+        <f>AVERAGE(L218,M218)</f>
+        <v>1150</v>
+      </c>
+      <c r="L218" s="5">
+        <v>800</v>
+      </c>
+      <c r="M218" s="5">
+        <v>1500</v>
+      </c>
+      <c r="N218" s="5">
+        <f>AVERAGE(O218,P218)</f>
+        <v>1150</v>
+      </c>
+      <c r="O218" s="5">
+        <v>800</v>
+      </c>
+      <c r="P218" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q218" s="5">
+        <f>AVERAGE(R218,S218)</f>
+        <v>1150</v>
+      </c>
+      <c r="R218" s="5">
+        <v>800</v>
+      </c>
+      <c r="S218" s="5">
+        <v>1500</v>
+      </c>
+      <c r="T218" s="5">
+        <f>AVERAGE(U218,V218)</f>
+        <v>1150</v>
+      </c>
+      <c r="U218" s="5">
+        <v>800</v>
+      </c>
+      <c r="V218" s="5">
+        <v>1500</v>
+      </c>
+      <c r="W218" s="5">
+        <f>AVERAGE(X218,Y218)</f>
+        <v>1150</v>
+      </c>
+      <c r="X218" s="5">
+        <v>800</v>
+      </c>
+      <c r="Y218" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Z218" s="5">
+        <f>AVERAGE(AA218,AB218)</f>
+        <v>1150</v>
+      </c>
+      <c r="AA218" s="5">
+        <v>800</v>
+      </c>
+      <c r="AB218" s="5">
+        <v>1500</v>
       </c>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F219" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G219" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H219" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J219" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="L219" s="8">
-        <f>K219*0.95</f>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="M219" s="8">
-        <f>K219*1.05</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="N219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="O219" s="8">
-        <f>N219*0.95</f>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="P219" s="8">
-        <f>N219*1.05</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="Q219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="R219" s="8">
-        <f>Q219*0.95</f>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="S219" s="8">
-        <f>Q219*1.05</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="T219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="U219" s="8">
-        <f t="shared" si="281"/>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="V219" s="8">
-        <f t="shared" si="282"/>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="W219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="X219" s="8">
-        <f t="shared" si="283"/>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="Y219" s="8">
-        <f t="shared" si="284"/>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="Z219" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AA219" s="8">
-        <f t="shared" si="285"/>
-        <v>0.66499999999999992</v>
-      </c>
-      <c r="AB219" s="8">
-        <f t="shared" si="286"/>
-        <v>0.73499999999999999</v>
+      <c r="K219" s="5">
+        <f>AVERAGE(L219,M219)</f>
+        <v>3250</v>
+      </c>
+      <c r="L219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="M219" s="5">
+        <v>4000</v>
+      </c>
+      <c r="N219" s="5">
+        <f>AVERAGE(O219,P219)</f>
+        <v>3250</v>
+      </c>
+      <c r="O219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="P219" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Q219" s="5">
+        <f>AVERAGE(R219,S219)</f>
+        <v>3250</v>
+      </c>
+      <c r="R219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="S219" s="5">
+        <v>4000</v>
+      </c>
+      <c r="T219" s="5">
+        <f>AVERAGE(U219,V219)</f>
+        <v>3250</v>
+      </c>
+      <c r="U219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="V219" s="5">
+        <v>4000</v>
+      </c>
+      <c r="W219" s="5">
+        <f>AVERAGE(X219,Y219)</f>
+        <v>3250</v>
+      </c>
+      <c r="X219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Y219" s="5">
+        <v>4000</v>
+      </c>
+      <c r="Z219" s="5">
+        <f>AVERAGE(AA219,AB219)</f>
+        <v>3250</v>
+      </c>
+      <c r="AA219" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AB219" s="5">
+        <v>4000</v>
       </c>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.2">
@@ -21247,7 +21225,7 @@
         <v>59</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>46</v>
@@ -21269,80 +21247,362 @@
         <v>25</v>
       </c>
       <c r="K220" s="8">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="L220" s="8">
         <f>K220*0.95</f>
-        <v>0.14249999999999999</v>
+        <v>0.71249999999999991</v>
       </c>
       <c r="M220" s="8">
         <f>K220*1.05</f>
-        <v>0.1575</v>
+        <v>0.78750000000000009</v>
       </c>
       <c r="N220" s="8">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="O220" s="8">
         <f>N220*0.95</f>
-        <v>0.14249999999999999</v>
+        <v>0.71249999999999991</v>
       </c>
       <c r="P220" s="8">
         <f>N220*1.05</f>
-        <v>0.1575</v>
+        <v>0.78750000000000009</v>
       </c>
       <c r="Q220" s="8">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="R220" s="8">
         <f>Q220*0.95</f>
-        <v>0.14249999999999999</v>
+        <v>0.71249999999999991</v>
       </c>
       <c r="S220" s="8">
         <f>Q220*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="T220" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="U220" s="8">
+        <f t="shared" ref="U220" si="275">T220*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="V220" s="8">
+        <f t="shared" ref="V220" si="276">T220*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="W220" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="X220" s="8">
+        <f t="shared" ref="X220" si="277">W220*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="Y220" s="8">
+        <f t="shared" ref="Y220" si="278">W220*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+      <c r="Z220" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AA220" s="8">
+        <f t="shared" ref="AA220" si="279">Z220*0.95</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="AB220" s="8">
+        <f t="shared" ref="AB220" si="280">Z220*1.05</f>
+        <v>0.78750000000000009</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="L221" s="8">
+        <f>K221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="M221" s="8">
+        <f>K221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="N221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="O221" s="8">
+        <f>N221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="P221" s="8">
+        <f>N221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="Q221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="R221" s="8">
+        <f>Q221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="S221" s="8">
+        <f>Q221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="T221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="U221" s="8">
+        <f t="shared" ref="U221:U223" si="281">T221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="V221" s="8">
+        <f t="shared" ref="V221:V223" si="282">T221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="W221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="X221" s="8">
+        <f t="shared" ref="X221:X223" si="283">W221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="Y221" s="8">
+        <f t="shared" ref="Y221:Y223" si="284">W221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+      <c r="Z221" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AA221" s="8">
+        <f t="shared" ref="AA221:AA223" si="285">Z221*0.95</f>
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="AB221" s="8">
+        <f t="shared" ref="AB221:AB223" si="286">Z221*1.05</f>
+        <v>0.47250000000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L222" s="8">
+        <f>K222*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="M222" s="8">
+        <f>K222*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="O222" s="8">
+        <f>N222*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="P222" s="8">
+        <f>N222*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="R222" s="8">
+        <f>Q222*0.95</f>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="S222" s="8">
+        <f>Q222*1.05</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="T222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="U222" s="8">
+        <f t="shared" si="281"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="V222" s="8">
+        <f t="shared" si="282"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="W222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X222" s="8">
+        <f t="shared" si="283"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="Y222" s="8">
+        <f t="shared" si="284"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Z222" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="AA222" s="8">
+        <f t="shared" si="285"/>
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="AB222" s="8">
+        <f t="shared" si="286"/>
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K223" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="L223" s="8">
+        <f>K223*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="M223" s="8">
+        <f>K223*1.05</f>
         <v>0.1575</v>
       </c>
-      <c r="T220" s="8">
+      <c r="N223" s="8">
         <v>0.15</v>
       </c>
-      <c r="U220" s="8">
+      <c r="O223" s="8">
+        <f>N223*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="P223" s="8">
+        <f>N223*1.05</f>
+        <v>0.1575</v>
+      </c>
+      <c r="Q223" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="R223" s="8">
+        <f>Q223*0.95</f>
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="S223" s="8">
+        <f>Q223*1.05</f>
+        <v>0.1575</v>
+      </c>
+      <c r="T223" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="U223" s="8">
         <f t="shared" si="281"/>
         <v>0.14249999999999999</v>
       </c>
-      <c r="V220" s="8">
+      <c r="V223" s="8">
         <f t="shared" si="282"/>
         <v>0.1575</v>
       </c>
-      <c r="W220" s="8">
+      <c r="W223" s="8">
         <v>0.15</v>
       </c>
-      <c r="X220" s="8">
+      <c r="X223" s="8">
         <f t="shared" si="283"/>
         <v>0.14249999999999999</v>
       </c>
-      <c r="Y220" s="8">
+      <c r="Y223" s="8">
         <f t="shared" si="284"/>
         <v>0.1575</v>
       </c>
-      <c r="Z220" s="8">
+      <c r="Z223" s="8">
         <v>0.15</v>
       </c>
-      <c r="AA220" s="8">
+      <c r="AA223" s="8">
         <f t="shared" si="285"/>
         <v>0.14249999999999999</v>
       </c>
-      <c r="AB220" s="8">
+      <c r="AB223" s="8">
         <f t="shared" si="286"/>
         <v>0.1575</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB216" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="engine efficiency"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AB216" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/dev/Input data_tw.xlsx
+++ b/dev/Input data_tw.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_two_wheeler/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_two_wheeler/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B0917-F03A-D045-864E-9ADCDC60939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF3141-AC9C-D046-89DD-1AB9F9B023CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9480" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35440" yWindow="3540" windowWidth="25820" windowHeight="14020" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$216</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AB$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -903,7 +903,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1207,20 +1207,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AT223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D222" sqref="D222"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="14" bestFit="1" customWidth="1"/>
@@ -2018,58 +2019,58 @@
         <v>25</v>
       </c>
       <c r="K10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="L10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="N10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="O10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="Q10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="R10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="S10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="T10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="U10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="V10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="W10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="X10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="Y10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="Z10" s="5">
-        <v>38500</v>
+        <v>50000</v>
       </c>
       <c r="AA10" s="5">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="AB10" s="5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.2">
@@ -2104,61 +2105,61 @@
         <v>25</v>
       </c>
       <c r="K11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="L11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="M11" s="5">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="N11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="O11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="P11" s="5">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="Q11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="R11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="S11" s="5">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="T11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="U11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="V11" s="5">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="W11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="X11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="Y11" s="5">
-        <v>42000</v>
+        <v>200000</v>
       </c>
       <c r="Z11" s="5">
-        <v>40500</v>
+        <v>100000</v>
       </c>
       <c r="AA11" s="5">
-        <v>38000</v>
+        <v>50000</v>
       </c>
       <c r="AB11" s="5">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2990,7 +2991,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>16</v>
       </c>
@@ -3050,7 +3051,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3171,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>16</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>16</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>16</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>16</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>16</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>16</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>16</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>16</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>16</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>16</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>16</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>16</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>16</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>16</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>16</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>21.428571428571427</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>16</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>16</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>13.043478260869565</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>16</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>22.222222222222221</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>16</v>
       </c>
@@ -5232,7 +5233,7 @@
         <v>6.6666666666666661</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>16</v>
       </c>
@@ -5332,7 +5333,7 @@
         <v>46.153846153846153</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>16</v>
       </c>
@@ -5432,7 +5433,7 @@
         <v>35.744680851063826</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>16</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>30.89108910891089</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>81.230769230769226</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>16</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>55.877862595419849</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>16</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>88.52459016393442</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>16</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>53.714285714285708</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>16</v>
       </c>
@@ -6032,7 +6033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>16</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>101.20481927710843</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>16</v>
       </c>
@@ -6232,7 +6233,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>16</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>230.58823529411762</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>16</v>
       </c>
@@ -6394,7 +6395,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>17</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>0.35200000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>17</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>0.6160000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>17</v>
       </c>
@@ -6688,7 +6689,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>17</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>7.7000000000000013E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>17</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>17</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>17</v>
       </c>
@@ -7080,7 +7081,7 @@
         <v>0.84700000000000009</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>17</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>1.2869999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>17</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>17</v>
       </c>
@@ -7374,7 +7375,7 @@
         <v>0.17600000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>17</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>17</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>0.42900000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>17</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>17</v>
       </c>
@@ -7766,7 +7767,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>17</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>17</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>17</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>0.20900000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>17</v>
       </c>
@@ -8158,7 +8159,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>17</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>0.25300000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>17</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>88</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>1.7600000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>88</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>88</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>5.1700000000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>88</v>
       </c>
@@ -8746,7 +8747,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>88</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>88</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>30.910000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>88</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>88</v>
       </c>
@@ -9138,7 +9139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>88</v>
       </c>
@@ -9236,7 +9237,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>88</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>88</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>88</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>88</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>18</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>18</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>18</v>
       </c>
@@ -9826,7 +9827,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>18</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>18</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>18</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>18</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>18</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>0.95481000000000005</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>18</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>18</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>18</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>18</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>18</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>18</v>
       </c>
@@ -10824,7 +10825,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>18</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>16</v>
       </c>
@@ -11020,7 +11021,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>16</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>16</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>16</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>16</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>1.2100000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>16</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>1.3915</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>16</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>0.82500000000000007</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>16</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>16</v>
       </c>
@@ -11810,7 +11811,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>16</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>16</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>16</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>16</v>
       </c>
@@ -12202,7 +12203,7 @@
         <v>1.1770000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>16</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>88</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>5.7750000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>88</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>7.4250000000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>88</v>
       </c>
@@ -12588,7 +12589,7 @@
         <v>12.375000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>88</v>
       </c>
@@ -12684,7 +12685,7 @@
         <v>14.850000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>88</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -12874,7 +12875,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>1.0033754123091398</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -13069,7 +13070,7 @@
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -13165,7 +13166,7 @@
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>17</v>
       </c>
@@ -13261,7 +13262,7 @@
         <v>0.94500000000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
@@ -13357,7 +13358,7 @@
         <v>1.0395000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>17</v>
       </c>
@@ -13417,7 +13418,7 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>17</v>
       </c>
@@ -13477,7 +13478,7 @@
       <c r="AA135" s="8"/>
       <c r="AB135" s="8"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>88</v>
       </c>
@@ -13573,7 +13574,7 @@
         <v>1.4300000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>88</v>
       </c>
@@ -13675,7 +13676,7 @@
         <v>0.71500000000000008</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>88</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>0.35750000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>88</v>
       </c>
@@ -13879,7 +13880,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>88</v>
       </c>
@@ -13981,7 +13982,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>88</v>
       </c>
@@ -14083,7 +14084,7 @@
         <v>0.30937500000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>88</v>
       </c>
@@ -14187,7 +14188,7 @@
         <v>2.4750000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>88</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>88</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>0.61875000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>88</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>88</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>88</v>
       </c>
@@ -14697,7 +14698,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>17</v>
       </c>
@@ -14770,7 +14771,7 @@
       <c r="AS148" s="1"/>
       <c r="AT148" s="1"/>
     </row>
-    <row r="149" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>17</v>
       </c>
@@ -14881,7 +14882,7 @@
       <c r="AS149" s="1"/>
       <c r="AT149" s="1"/>
     </row>
-    <row r="150" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>17</v>
       </c>
@@ -14992,7 +14993,7 @@
       <c r="AS150" s="1"/>
       <c r="AT150" s="1"/>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>17</v>
       </c>
@@ -15050,7 +15051,7 @@
       <c r="AA151" s="11"/>
       <c r="AB151" s="11"/>
     </row>
-    <row r="152" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>17</v>
       </c>
@@ -15169,7 +15170,7 @@
       <c r="AS152" s="1"/>
       <c r="AT152" s="1"/>
     </row>
-    <row r="153" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>17</v>
       </c>
@@ -15288,7 +15289,7 @@
       <c r="AS153" s="1"/>
       <c r="AT153" s="1"/>
     </row>
-    <row r="154" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>17</v>
       </c>
@@ -15401,7 +15402,7 @@
       <c r="AS154" s="1"/>
       <c r="AT154" s="1"/>
     </row>
-    <row r="155" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>140</v>
       </c>
@@ -15503,7 +15504,7 @@
       <c r="AS155" s="1"/>
       <c r="AT155" s="1"/>
     </row>
-    <row r="156" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>140</v>
       </c>
@@ -15605,7 +15606,7 @@
       <c r="AS156" s="1"/>
       <c r="AT156" s="1"/>
     </row>
-    <row r="157" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>140</v>
       </c>
@@ -15705,7 +15706,7 @@
       <c r="AS157" s="1"/>
       <c r="AT157" s="1"/>
     </row>
-    <row r="158" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>140</v>
       </c>
@@ -15805,7 +15806,7 @@
       <c r="AS158" s="1"/>
       <c r="AT158" s="1"/>
     </row>
-    <row r="159" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>140</v>
       </c>
@@ -15905,7 +15906,7 @@
       <c r="AS159" s="1"/>
       <c r="AT159" s="1"/>
     </row>
-    <row r="160" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>140</v>
       </c>
@@ -16007,7 +16008,7 @@
       <c r="AS160" s="1"/>
       <c r="AT160" s="1"/>
     </row>
-    <row r="161" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>140</v>
       </c>
@@ -16109,7 +16110,7 @@
       <c r="AS161" s="1"/>
       <c r="AT161" s="1"/>
     </row>
-    <row r="162" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
         <v>140</v>
       </c>
@@ -16211,7 +16212,7 @@
       <c r="AS162" s="1"/>
       <c r="AT162" s="1"/>
     </row>
-    <row r="163" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
         <v>140</v>
       </c>
@@ -16313,7 +16314,7 @@
       <c r="AS163" s="1"/>
       <c r="AT163" s="1"/>
     </row>
-    <row r="164" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
         <v>140</v>
       </c>
@@ -16377,7 +16378,7 @@
       <c r="AS164" s="1"/>
       <c r="AT164" s="1"/>
     </row>
-    <row r="165" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
         <v>140</v>
       </c>
@@ -16441,7 +16442,7 @@
       <c r="AS165" s="1"/>
       <c r="AT165" s="1"/>
     </row>
-    <row r="166" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
         <v>140</v>
       </c>
@@ -16543,7 +16544,7 @@
       <c r="AS166" s="1"/>
       <c r="AT166" s="1"/>
     </row>
-    <row r="167" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
         <v>140</v>
       </c>
@@ -16645,7 +16646,7 @@
       <c r="AS167" s="1"/>
       <c r="AT167" s="1"/>
     </row>
-    <row r="168" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
         <v>140</v>
       </c>
@@ -16747,7 +16748,7 @@
       <c r="AS168" s="1"/>
       <c r="AT168" s="1"/>
     </row>
-    <row r="169" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
         <v>140</v>
       </c>
@@ -16849,7 +16850,7 @@
       <c r="AS169" s="1"/>
       <c r="AT169" s="1"/>
     </row>
-    <row r="170" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
         <v>140</v>
       </c>
@@ -16951,7 +16952,7 @@
       <c r="AS170" s="1"/>
       <c r="AT170" s="1"/>
     </row>
-    <row r="171" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
         <v>140</v>
       </c>
@@ -17051,7 +17052,7 @@
       <c r="AS171" s="1"/>
       <c r="AT171" s="1"/>
     </row>
-    <row r="172" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>140</v>
       </c>
@@ -17151,7 +17152,7 @@
       <c r="AS172" s="1"/>
       <c r="AT172" s="1"/>
     </row>
-    <row r="173" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>140</v>
       </c>
@@ -17253,7 +17254,7 @@
       <c r="AS173" s="1"/>
       <c r="AT173" s="1"/>
     </row>
-    <row r="174" spans="1:46" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
         <v>140</v>
       </c>
@@ -17355,7 +17356,7 @@
       <c r="AS174" s="1"/>
       <c r="AT174" s="1"/>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
         <v>140</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
         <v>140</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>88</v>
       </c>
@@ -17618,7 +17619,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>88</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>88</v>
       </c>
@@ -17808,7 +17809,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="180" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>88</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="181" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16" t="s">
         <v>18</v>
       </c>
@@ -17943,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>18</v>
       </c>
@@ -18041,7 +18042,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>18</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>0.9900000000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>17</v>
       </c>
@@ -18235,7 +18236,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>17</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>17</v>
       </c>
@@ -18427,7 +18428,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>17</v>
       </c>
@@ -18523,7 +18524,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16" t="s">
         <v>18</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16" t="s">
         <v>18</v>
       </c>
@@ -18705,7 +18706,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16" t="s">
         <v>18</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16" t="s">
         <v>18</v>
       </c>
@@ -18887,7 +18888,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="192" spans="1:29" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16" t="s">
         <v>18</v>
       </c>
@@ -18978,7 +18979,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16" t="s">
         <v>18</v>
       </c>
@@ -19069,7 +19070,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="194" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16" t="s">
         <v>18</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16" t="s">
         <v>18</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="196" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16" t="s">
         <v>18</v>
       </c>
@@ -19342,7 +19343,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="197" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16" t="s">
         <v>18</v>
       </c>
@@ -19433,7 +19434,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16" t="s">
         <v>18</v>
       </c>
@@ -19510,7 +19511,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="199" spans="1:28" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" s="16" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16" t="s">
         <v>18</v>
       </c>
@@ -19587,7 +19588,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="200" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="16" t="s">
         <v>18</v>
       </c>
@@ -19664,7 +19665,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="201" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16" t="s">
         <v>18</v>
       </c>
@@ -19741,7 +19742,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="202" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16" t="s">
         <v>18</v>
       </c>
@@ -19818,7 +19819,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="203" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16" t="s">
         <v>18</v>
       </c>
@@ -19895,7 +19896,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="204" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16" t="s">
         <v>18</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="205" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16" t="s">
         <v>18</v>
       </c>
@@ -20049,7 +20050,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="206" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16" t="s">
         <v>18</v>
       </c>
@@ -20126,7 +20127,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="207" spans="1:28" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" s="16" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16" t="s">
         <v>18</v>
       </c>
@@ -20203,7 +20204,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>18</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>18</v>
       </c>
@@ -20371,7 +20372,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>18</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>18</v>
       </c>
@@ -20539,7 +20540,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>18</v>
       </c>
@@ -20623,7 +20624,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>18</v>
       </c>
@@ -20707,7 +20708,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>18</v>
       </c>
@@ -20791,7 +20792,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>18</v>
       </c>
@@ -20875,7 +20876,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>18</v>
       </c>
@@ -20959,7 +20960,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>18</v>
       </c>
@@ -21041,7 +21042,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>18</v>
       </c>
@@ -21129,7 +21130,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>18</v>
       </c>
@@ -21217,7 +21218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>17</v>
       </c>
@@ -21313,7 +21314,7 @@
         <v>0.78750000000000009</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>17</v>
       </c>
@@ -21409,7 +21410,7 @@
         <v>0.47250000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>17</v>
       </c>
@@ -21505,7 +21506,7 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>17</v>
       </c>
@@ -21602,7 +21603,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AB216" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AB223" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="lifetime kilometers"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H115" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
